--- a/uml/systemtests/CIT360 - System Level Test Cleanup.xlsx
+++ b/uml/systemtests/CIT360 - System Level Test Cleanup.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6d0dc1a3df7cb25e/Documents/BYUI/CIT360/cit360/uml/systemtests/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mythr\OneDrive\Documents\BYUI\CIT360\cit360\uml\systemtests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{84086395-EB13-4509-BBC5-57BEEF8BC6E2}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{BB489A53-F050-4243-8382-E4EBDF9CE8D7}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="8_{84086395-EB13-4509-BBC5-57BEEF8BC6E2}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{CF56F181-AB81-444F-BF95-2B650B1A3118}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="8423" windowHeight="3893" xr2:uid="{A3D11415-B1AF-4E17-A9B6-68F2C84933C2}"/>
   </bookViews>
@@ -268,31 +268,31 @@
   </cellStyleXfs>
   <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -613,236 +613,236 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G1"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="4.19921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="48.06640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="62.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.46484375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="67.1328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.1328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="3.46484375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.86328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.19921875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="26.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="1" t="s">
+      <c r="B2" s="12"/>
+      <c r="C2" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="1" t="s">
+      <c r="B3" s="12"/>
+      <c r="C3" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="1" t="s">
+      <c r="B4" s="12"/>
+      <c r="C4" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="8" t="s">
+      <c r="B5" s="14"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="2"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6" s="4"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="10" t="s">
+      <c r="A6" s="3"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="2"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="G7" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A8" s="13">
+      <c r="A8" s="8">
         <v>1</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A9" s="13">
+      <c r="A9" s="8">
         <v>2</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A10" s="13">
+      <c r="A10" s="8">
         <v>3</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A11" s="13">
+      <c r="A11" s="8">
         <v>5</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A12" s="13">
+      <c r="A12" s="8">
         <v>6</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A13" s="13">
+      <c r="A13" s="8">
         <v>7</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A14" s="13">
+      <c r="A14" s="8">
         <v>8</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A15" s="13">
+      <c r="A15" s="8">
         <v>9</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="C15" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="10">

--- a/uml/systemtests/CIT360 - System Level Test Cleanup.xlsx
+++ b/uml/systemtests/CIT360 - System Level Test Cleanup.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mythr\OneDrive\Documents\BYUI\CIT360\cit360\uml\systemtests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="8_{84086395-EB13-4509-BBC5-57BEEF8BC6E2}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{CF56F181-AB81-444F-BF95-2B650B1A3118}"/>
+  <xr:revisionPtr revIDLastSave="68" documentId="8_{84086395-EB13-4509-BBC5-57BEEF8BC6E2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{31AA6670-4275-4131-834E-400559F74014}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="8423" windowHeight="3893" xr2:uid="{A3D11415-B1AF-4E17-A9B6-68F2C84933C2}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="8423" windowHeight="3893" activeTab="1" xr2:uid="{A3D11415-B1AF-4E17-A9B6-68F2C84933C2}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Test_1" sheetId="1" r:id="rId1"/>
+    <sheet name="Test_2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="47">
   <si>
     <t>Step</t>
   </si>
@@ -77,58 +78,100 @@
     <t>CMDBCleanup_1_Test</t>
   </si>
   <si>
-    <t>Validate Uploading of csv File into Application.</t>
-  </si>
-  <si>
     <t>Open Application</t>
   </si>
   <si>
     <t>Application opens without error</t>
   </si>
   <si>
-    <t>Select Upload a Scan</t>
-  </si>
-  <si>
-    <t>A windows explorer box opens</t>
-  </si>
-  <si>
-    <t>Double-click test1.txt</t>
-  </si>
-  <si>
-    <t>Alert states 'Please select valid file type Example.csv'</t>
-  </si>
-  <si>
-    <t>Browse to location of test files</t>
-  </si>
-  <si>
-    <t>View test files location</t>
-  </si>
-  <si>
-    <t>Double-click test1.csv</t>
-  </si>
-  <si>
-    <t>Alert states 'Invalid data found, please check your file or select a different file'</t>
-  </si>
-  <si>
-    <t>Double-click test2.csv</t>
-  </si>
-  <si>
-    <t>Alert states 'Data successfully loaded. Click OK to review latest scan data'</t>
-  </si>
-  <si>
-    <t>test1.csv, test2.csv, test1.txt, CMDB_Cleanup application, MySQL database (CMDB Cleanup), MySQL Workbench</t>
-  </si>
-  <si>
-    <t>Run command SELECT * FROM cmdb_cleanup.temp_import</t>
-  </si>
-  <si>
-    <t>In MySQL Workbench, open cmdb_cleanup schema</t>
-  </si>
-  <si>
-    <t>Schema opens</t>
-  </si>
-  <si>
-    <t>Record displays for Asset STORE0001POS001, all fields are populated</t>
+    <t>test1.json, test2.json, test1.txt, CMDB_Cleanup application, MySQL database (CMDB Cleanup), MySQL Workbench</t>
+  </si>
+  <si>
+    <t>Validate Import of JSON File, and Retrieval of Database Table</t>
+  </si>
+  <si>
+    <t>Select Import Scan</t>
+  </si>
+  <si>
+    <t>File is renamed to invalid format</t>
+  </si>
+  <si>
+    <t>Alert states 'Error locating compiled.json'</t>
+  </si>
+  <si>
+    <t>Click 'OK'</t>
+  </si>
+  <si>
+    <t>Alert is dismissed</t>
+  </si>
+  <si>
+    <t>Rename test1.json to compiled.json</t>
+  </si>
+  <si>
+    <t>Rename test1.txt to compiled.txt</t>
+  </si>
+  <si>
+    <t>Alert states 'Invalid data found, please check your file'</t>
+  </si>
+  <si>
+    <t>Rename test2.json to compiled.json</t>
+  </si>
+  <si>
+    <t>Alert states 'Records successfully imported'</t>
+  </si>
+  <si>
+    <t>View Asset Changes' screen Displays</t>
+  </si>
+  <si>
+    <t>Successful Import from CMDBCleanup_1_Test</t>
+  </si>
+  <si>
+    <t>CMDBCleanup_2_Test</t>
+  </si>
+  <si>
+    <t>Validate Logic of CMDB Asset Comparison</t>
+  </si>
+  <si>
+    <t>Select 'View Asset Changes'</t>
+  </si>
+  <si>
+    <t>Changed Assets display with differences bolded</t>
+  </si>
+  <si>
+    <t>Locate Computer1</t>
+  </si>
+  <si>
+    <t>IP Address is bolded</t>
+  </si>
+  <si>
+    <t>Locate Computer2</t>
+  </si>
+  <si>
+    <t>MAC Address is bolded</t>
+  </si>
+  <si>
+    <t>Locate Computer3</t>
+  </si>
+  <si>
+    <t>Owner and IP Address is bolded</t>
+  </si>
+  <si>
+    <t>Click Export Changes</t>
+  </si>
+  <si>
+    <t>Alert states 'Changes saved to update.json'</t>
+  </si>
+  <si>
+    <t>Locate update.json</t>
+  </si>
+  <si>
+    <t>File exists</t>
+  </si>
+  <si>
+    <t>Open update.json</t>
+  </si>
+  <si>
+    <t>Computer1, Computer2, Computer3 are contained in file</t>
   </si>
 </sst>
 </file>
@@ -266,7 +309,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -293,6 +336,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -612,19 +656,19 @@
   </sheetPr>
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="4.19921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50.46484375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="67.1328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.1328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.46484375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.1328125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="3.796875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="4.19921875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.6640625" customWidth="1"/>
+    <col min="7" max="7" width="35.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
@@ -657,7 +701,7 @@
       </c>
       <c r="B3" s="12"/>
       <c r="C3" s="15" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D3" s="15"/>
       <c r="E3" s="15"/>
@@ -670,7 +714,7 @@
       </c>
       <c r="B4" s="12"/>
       <c r="C4" s="15" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="D4" s="15"/>
       <c r="E4" s="15"/>
@@ -729,10 +773,10 @@
         <v>1</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -744,10 +788,10 @@
         <v>2</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -759,10 +803,10 @@
         <v>3</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -774,10 +818,10 @@
         <v>5</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -792,7 +836,7 @@
         <v>24</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -804,10 +848,10 @@
         <v>7</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -819,10 +863,10 @@
         <v>8</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -834,10 +878,10 @@
         <v>9</v>
       </c>
       <c r="B15" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="16" t="s">
         <v>29</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>32</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -860,4 +904,257 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="79" fitToHeight="0" orientation="landscape" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7243428B-23C5-47B0-A406-16B7AF5A693D}">
+  <dimension ref="A1:G15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:G1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="4.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.1328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.46484375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.19921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.3984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A2" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="12"/>
+      <c r="C2" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A3" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="12"/>
+      <c r="C3" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A4" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="12"/>
+      <c r="C4" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A5" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="14"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A6" s="3"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A7" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A8" s="8">
+        <v>1</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A9" s="8">
+        <v>2</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A10" s="8">
+        <v>3</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A11" s="8">
+        <v>5</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A12" s="8">
+        <v>6</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A13" s="8">
+        <v>7</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A14" s="8">
+        <v>8</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A15" s="8">
+        <v>9</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:G4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/uml/systemtests/CIT360 - System Level Test Cleanup.xlsx
+++ b/uml/systemtests/CIT360 - System Level Test Cleanup.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mythr\OneDrive\Documents\BYUI\CIT360\cit360\uml\systemtests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="68" documentId="8_{84086395-EB13-4509-BBC5-57BEEF8BC6E2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{31AA6670-4275-4131-834E-400559F74014}"/>
+  <xr:revisionPtr revIDLastSave="69" documentId="8_{84086395-EB13-4509-BBC5-57BEEF8BC6E2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{838B0097-8DC9-4B81-B789-4DFFD3BE4645}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="8423" windowHeight="3893" activeTab="1" xr2:uid="{A3D11415-B1AF-4E17-A9B6-68F2C84933C2}"/>
   </bookViews>
@@ -321,6 +321,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -336,7 +337,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -672,77 +672,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="15" t="s">
+      <c r="B2" s="13"/>
+      <c r="C2" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="15" t="s">
+      <c r="B3" s="13"/>
+      <c r="C3" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="15" t="s">
+      <c r="B4" s="13"/>
+      <c r="C4" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="14"/>
+      <c r="B5" s="15"/>
       <c r="C5" s="2"/>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="3"/>
       <c r="B6" s="4"/>
       <c r="C6" s="5"/>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
@@ -880,7 +880,7 @@
       <c r="B15" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="11" t="s">
         <v>29</v>
       </c>
       <c r="D15" s="1"/>
@@ -902,12 +902,15 @@
     <mergeCell ref="D5:F5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="79" fitToHeight="0" orientation="landscape" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+  <pageSetup scale="94" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7243428B-23C5-47B0-A406-16B7AF5A693D}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -926,77 +929,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="15" t="s">
+      <c r="B2" s="13"/>
+      <c r="C2" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="15" t="s">
+      <c r="B3" s="13"/>
+      <c r="C3" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="15" t="s">
+      <c r="B4" s="13"/>
+      <c r="C4" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="14"/>
+      <c r="B5" s="15"/>
       <c r="C5" s="2"/>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="3"/>
       <c r="B6" s="4"/>
       <c r="C6" s="5"/>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
@@ -1134,7 +1137,7 @@
       <c r="B15" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="11" t="s">
         <v>46</v>
       </c>
       <c r="D15" s="1"/>
@@ -1156,5 +1159,6 @@
     <mergeCell ref="C4:G4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="80" fitToHeight="0" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>